--- a/Plan/Table/Live_Data/22.Event_Table.xlsx
+++ b/Plan/Table/Live_Data/22.Event_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{868D24CF-D36E-4AD7-B0EA-19E29EBB0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95201638-591D-4A4B-8019-1A2F4A45DE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBFA1B54-83D5-458D-9860-03D6E76DD39F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CF1E4CFF-E196-45F0-8AAE-CE1844A436E1}"/>
   </bookViews>
   <sheets>
     <sheet name="22.Event_Table" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8902E2E-123A-435D-9B7C-E432ABB5B26E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DE3C90-6D62-4A96-AE2F-524085BE9CAF}">
   <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2810,7 +2810,7 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
@@ -2857,7 +2857,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
         <v>40</v>
@@ -2904,7 +2904,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -2951,7 +2951,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -2959,8 +2959,14 @@
       <c r="D50" t="s">
         <v>53</v>
       </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
       <c r="F50" t="s">
         <v>54</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2992,7 +2998,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -3001,19 +3007,19 @@
         <v>34</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F51">
         <v>33</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51">
         <v>33</v>
       </c>
       <c r="I51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3039,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
@@ -3086,7 +3092,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -3133,7 +3139,7 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -3180,7 +3186,7 @@
         <v>51</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -3227,7 +3233,7 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -3274,7 +3280,7 @@
         <v>51</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -3321,7 +3327,7 @@
         <v>51</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -3368,7 +3374,7 @@
         <v>51</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>58</v>
@@ -3415,7 +3421,7 @@
         <v>51</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>44</v>
@@ -3462,7 +3468,7 @@
         <v>51</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -3509,7 +3515,7 @@
         <v>51</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -3556,7 +3562,7 @@
         <v>51</v>
       </c>
       <c r="B63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
@@ -3603,7 +3609,7 @@
         <v>51</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -3650,7 +3656,7 @@
         <v>51</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -3697,7 +3703,7 @@
         <v>51</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -3744,7 +3750,7 @@
         <v>51</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -6805,7 +6811,7 @@
         <v>67</v>
       </c>
       <c r="D132">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6852,7 +6858,7 @@
         <v>68</v>
       </c>
       <c r="D133">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6899,7 +6905,7 @@
         <v>44</v>
       </c>
       <c r="D134">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6993,7 +6999,7 @@
         <v>67</v>
       </c>
       <c r="D136">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -7040,7 +7046,7 @@
         <v>68</v>
       </c>
       <c r="D137">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7087,7 +7093,7 @@
         <v>44</v>
       </c>
       <c r="D138">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7181,7 +7187,7 @@
         <v>67</v>
       </c>
       <c r="D140">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7228,7 +7234,7 @@
         <v>68</v>
       </c>
       <c r="D141">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7275,7 +7281,7 @@
         <v>44</v>
       </c>
       <c r="D142">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -7369,7 +7375,7 @@
         <v>67</v>
       </c>
       <c r="D144">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7416,7 +7422,7 @@
         <v>68</v>
       </c>
       <c r="D145">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7463,7 +7469,7 @@
         <v>44</v>
       </c>
       <c r="D146">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7557,7 +7563,7 @@
         <v>67</v>
       </c>
       <c r="D148">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7604,7 +7610,7 @@
         <v>68</v>
       </c>
       <c r="D149">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7651,7 +7657,7 @@
         <v>44</v>
       </c>
       <c r="D150">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7745,7 +7751,7 @@
         <v>67</v>
       </c>
       <c r="D152">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7792,7 +7798,7 @@
         <v>44</v>
       </c>
       <c r="D153">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E153">
         <v>0</v>
